--- a/course 5/module 4/C5-W4-Assignment-_3.xlsx
+++ b/course 5/module 4/C5-W4-Assignment-_3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaszai-Man Cave\Documents\Documents\Dad\BI Certification\Course 5\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dwc\course 5\module 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,21 +50,39 @@
     <t>Profit amount and margin</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Returns</t>
   </si>
   <si>
+    <t>BQ4</t>
+  </si>
+  <si>
     <t>Shipping delays</t>
   </si>
   <si>
+    <t>BQ5,BQ6</t>
+  </si>
+  <si>
     <t>Revenue (job)</t>
   </si>
   <si>
+    <t>BQ1</t>
+  </si>
+  <si>
     <t>Revenue (invoice)</t>
   </si>
   <si>
+    <t>BQ2</t>
+  </si>
+  <si>
     <t>Costs (subjob)</t>
   </si>
   <si>
+    <t>BQ3</t>
+  </si>
+  <si>
     <t>Ratio among types of costs</t>
   </si>
   <si>
@@ -84,24 +102,6 @@
   </si>
   <si>
     <t>Lead success rate</t>
-  </si>
-  <si>
-    <t>BQ1</t>
-  </si>
-  <si>
-    <t>BQ2</t>
-  </si>
-  <si>
-    <t>BQ3</t>
-  </si>
-  <si>
-    <t>BQ4</t>
-  </si>
-  <si>
-    <t>BQ5,BQ6</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -119,22 +119,22 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,10 +169,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF999999"/>
       </top>
@@ -193,6 +193,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF999999"/>
       </left>
@@ -237,19 +250,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF666666"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,25 +262,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -317,7 +317,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -329,7 +329,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,232 +610,232 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +843,5 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="LastActive" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>